--- a/Assets/VoiceContent_3.xlsx
+++ b/Assets/VoiceContent_3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{78CD740C-8914-47FF-A5FE-58090EC6ACAA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49236712-9973-42A5-B3EE-BB15CB4C5882}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,18 @@
   </si>
   <si>
     <t>请您尽快取走您的奖励，这样我们才能继续进行游戏呢！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameEnd_NoGift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏结束喽，不要灰心呢，下次难度还是中等哦，继续加油吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不送礼品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1228,6 +1240,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/VoiceContent_3.xlsx
+++ b/Assets/VoiceContent_3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49236712-9973-42A5-B3EE-BB15CB4C5882}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1995B49D-F3B1-46CD-AEFD-638915A979AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,11 +375,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏结束喽，不要灰心呢，下次难度还是中等哦，继续加油吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不送礼品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏结束喽，不要灰心呢，下次难度还是最低哦，继续加油吧。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1248,13 +1248,13 @@
         <v>85</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D33">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
